--- a/Aahna Sanyal_delay_discounting.xlsx
+++ b/Aahna Sanyal_delay_discounting.xlsx
@@ -1137,11 +1137,11 @@
     <row r="10" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(30,85)</f>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <f ca="1">RANDBETWEEN(50,135)</f>
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>7</v>
@@ -1150,21 +1150,21 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ref="A11:A74" ca="1" si="1">RANDBETWEEN(30,110)</f>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B74" ca="1" si="2">RANDBETWEEN(50,135)</f>
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(30,110)</f>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
@@ -1173,211 +1173,211 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <f ca="1">RANDBETWEEN(50,135)</f>
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1387,107 +1387,107 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1497,27 +1497,27 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1527,537 +1527,537 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" ref="A75:A101" ca="1" si="3">RANDBETWEEN(30,110)</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <f t="shared" ref="B75:B101" ca="1" si="4">RANDBETWEEN(50,135)</f>
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="4"/>
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="4"/>
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="4"/>
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="4"/>
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="4"/>
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="4"/>
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="4"/>
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="4"/>
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="4"/>
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="4"/>
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2074,7 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2316,7 +2316,7 @@
         <v>1.5089033341367307E-3</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">

--- a/Aahna Sanyal_delay_discounting.xlsx
+++ b/Aahna Sanyal_delay_discounting.xlsx
@@ -232,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -573,6 +579,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -618,7 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -635,6 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1137,11 +1159,11 @@
     <row r="10" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(30,85)</f>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <f ca="1">RANDBETWEEN(50,135)</f>
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>7</v>
@@ -1150,21 +1172,21 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ref="A11:A74" ca="1" si="1">RANDBETWEEN(30,110)</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B74" ca="1" si="2">RANDBETWEEN(50,135)</f>
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(30,110)</f>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
@@ -1173,231 +1195,231 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <f ca="1">RANDBETWEEN(50,135)</f>
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1407,277 +1429,277 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1687,377 +1709,377 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" ref="A75:A101" ca="1" si="3">RANDBETWEEN(30,110)</f>
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B75">
         <f t="shared" ref="B75:B101" ca="1" si="4">RANDBETWEEN(50,135)</f>
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="4"/>
-        <v>122</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="4"/>
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="4"/>
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="4"/>
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="4"/>
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="4"/>
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="4"/>
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2096,7 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2119,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="9">
-        <f>((B2/A2)-1)/C2</f>
+        <f t="shared" ref="E2:E65" si="0">((B2/A2)-1)/C2</f>
         <v>1.0484927916120499E-4</v>
       </c>
     </row>
@@ -2137,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="9">
-        <f>((B3/A3)-1)/C3</f>
+        <f t="shared" si="0"/>
         <v>1.207146306132296E-4</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -2158,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="9">
-        <f>((B4/A4)-1)/C4</f>
+        <f t="shared" si="0"/>
         <v>1.3643495463537742E-4</v>
       </c>
       <c r="H4" s="8">
@@ -2183,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="9">
-        <f>((B5/A5)-1)/C5</f>
+        <f t="shared" si="0"/>
         <v>1.4584346135148332E-4</v>
       </c>
       <c r="H5" s="8">
@@ -2208,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="9">
-        <f>((B6/A6)-1)/C6</f>
+        <f t="shared" si="0"/>
         <v>1.4602803738317756E-4</v>
       </c>
       <c r="H6" s="8">
@@ -2233,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="9">
-        <f>((B7/A7)-1)/C7</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="H7" s="8">
@@ -2258,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="9">
-        <f>((B8/A8)-1)/C8</f>
+        <f t="shared" si="0"/>
         <v>1.7056114617090243E-4</v>
       </c>
       <c r="H8" s="8">
@@ -2283,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9">
-        <f>((B9/A9)-1)/C9</f>
+        <f t="shared" si="0"/>
         <v>1.708817498291181E-4</v>
       </c>
       <c r="H9" s="8">
@@ -2308,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="9">
-        <f>((B10/A10)-1)/C10</f>
+        <f t="shared" si="0"/>
         <v>1.715265866209262E-4</v>
       </c>
       <c r="H10" s="8">
@@ -2333,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="9">
-        <f>((B11/A11)-1)/C11</f>
+        <f t="shared" si="0"/>
         <v>1.7692852087756542E-4</v>
       </c>
       <c r="H11" s="8">
@@ -2358,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="9">
-        <f>((B12/A12)-1)/C12</f>
+        <f t="shared" si="0"/>
         <v>1.7988846914912689E-4</v>
       </c>
       <c r="H12" s="8">
@@ -2383,11 +2405,11 @@
         <v>5</v>
       </c>
       <c r="E13" s="9">
-        <f>((B13/A13)-1)/C13</f>
+        <f t="shared" si="0"/>
         <v>1.8031013342949994E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>133</v>
       </c>
@@ -2401,11 +2423,11 @@
         <v>5</v>
       </c>
       <c r="E14" s="9">
-        <f>((B14/A14)-1)/C14</f>
+        <f t="shared" si="0"/>
         <v>1.8117583114412669E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>151</v>
       </c>
@@ -2419,8 +2441,12 @@
         <v>5</v>
       </c>
       <c r="E15" s="9">
-        <f>((B15/A15)-1)/C15</f>
+        <f t="shared" si="0"/>
         <v>1.8395879323031611E-4</v>
+      </c>
+      <c r="H15" s="12">
+        <f>GEOMEAN(H4:H12)</f>
+        <v>1.2586251114131658E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2437,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="9">
-        <f>((B16/A16)-1)/C16</f>
+        <f t="shared" si="0"/>
         <v>1.9252984212552967E-4</v>
       </c>
     </row>
@@ -2455,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="9">
-        <f>((B17/A17)-1)/C17</f>
+        <f t="shared" si="0"/>
         <v>2.128112364332833E-4</v>
       </c>
     </row>
@@ -2473,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="9">
-        <f>((B18/A18)-1)/C18</f>
+        <f t="shared" si="0"/>
         <v>2.164502164502152E-4</v>
       </c>
     </row>
@@ -2491,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="9">
-        <f>((B19/A19)-1)/C19</f>
+        <f t="shared" si="0"/>
         <v>2.2747952684258412E-4</v>
       </c>
     </row>
@@ -2509,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="9">
-        <f>((B20/A20)-1)/C20</f>
+        <f t="shared" si="0"/>
         <v>2.3847376788553343E-4</v>
       </c>
     </row>
@@ -2527,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="9">
-        <f>((B21/A21)-1)/C21</f>
+        <f t="shared" si="0"/>
         <v>2.4342745861733334E-4</v>
       </c>
     </row>
@@ -2545,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="9">
-        <f>((B22/A22)-1)/C22</f>
+        <f t="shared" si="0"/>
         <v>2.5838124152186519E-4</v>
       </c>
     </row>
@@ -2563,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="9">
-        <f>((B23/A23)-1)/C23</f>
+        <f t="shared" si="0"/>
         <v>2.6075619295958208E-4</v>
       </c>
     </row>
@@ -2581,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="9">
-        <f>((B24/A24)-1)/C24</f>
+        <f t="shared" si="0"/>
         <v>2.6497085320614636E-4</v>
       </c>
     </row>
@@ -2599,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="9">
-        <f>((B25/A25)-1)/C25</f>
+        <f t="shared" si="0"/>
         <v>2.7229407760381256E-4</v>
       </c>
     </row>
@@ -2617,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="9">
-        <f>((B26/A26)-1)/C26</f>
+        <f t="shared" si="0"/>
         <v>2.7300027300027248E-4</v>
       </c>
     </row>
@@ -2635,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="9">
-        <f>((B27/A27)-1)/C27</f>
+        <f t="shared" si="0"/>
         <v>2.7675915034940801E-4</v>
       </c>
     </row>
@@ -2653,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="9">
-        <f>((B28/A28)-1)/C28</f>
+        <f t="shared" si="0"/>
         <v>2.777777777777768E-4</v>
       </c>
     </row>
@@ -2671,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="9">
-        <f>((B29/A29)-1)/C29</f>
+        <f t="shared" si="0"/>
         <v>2.8254573709119248E-4</v>
       </c>
     </row>
@@ -2689,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="9">
-        <f>((B30/A30)-1)/C30</f>
+        <f t="shared" si="0"/>
         <v>2.8935185185185184E-4</v>
       </c>
     </row>
@@ -2707,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="9">
-        <f>((B31/A31)-1)/C31</f>
+        <f t="shared" si="0"/>
         <v>2.8981307056948351E-4</v>
       </c>
     </row>
@@ -2725,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="9">
-        <f>((B32/A32)-1)/C32</f>
+        <f t="shared" si="0"/>
         <v>2.9222676797194545E-4</v>
       </c>
     </row>
@@ -2743,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="9">
-        <f>((B33/A33)-1)/C33</f>
+        <f t="shared" si="0"/>
         <v>2.9394473838918593E-4</v>
       </c>
     </row>
@@ -2761,7 +2787,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="9">
-        <f>((B34/A34)-1)/C34</f>
+        <f t="shared" si="0"/>
         <v>2.9563932002956404E-4</v>
       </c>
     </row>
@@ -2779,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="9">
-        <f>((B35/A35)-1)/C35</f>
+        <f t="shared" si="0"/>
         <v>3.0693677102516874E-4</v>
       </c>
     </row>
@@ -2797,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="9">
-        <f>((B36/A36)-1)/C36</f>
+        <f t="shared" si="0"/>
         <v>3.1515915537346325E-4</v>
       </c>
     </row>
@@ -2815,7 +2841,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="9">
-        <f>((B37/A37)-1)/C37</f>
+        <f t="shared" si="0"/>
         <v>3.1561671506122915E-4</v>
       </c>
     </row>
@@ -2833,7 +2859,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="9">
-        <f>((B38/A38)-1)/C38</f>
+        <f t="shared" si="0"/>
         <v>3.1565656565656454E-4</v>
       </c>
     </row>
@@ -2851,7 +2877,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="9">
-        <f>((B39/A39)-1)/C39</f>
+        <f t="shared" si="0"/>
         <v>3.2051282051282122E-4</v>
       </c>
     </row>
@@ -2869,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="9">
-        <f>((B40/A40)-1)/C40</f>
+        <f t="shared" si="0"/>
         <v>3.2206119162640718E-4</v>
       </c>
     </row>
@@ -2887,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="9">
-        <f>((B41/A41)-1)/C41</f>
+        <f t="shared" si="0"/>
         <v>3.3068783068783018E-4</v>
       </c>
     </row>
@@ -2905,7 +2931,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="9">
-        <f>((B42/A42)-1)/C42</f>
+        <f t="shared" si="0"/>
         <v>3.4453057708871721E-4</v>
       </c>
     </row>
@@ -2923,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="9">
-        <f>((B43/A43)-1)/C43</f>
+        <f t="shared" si="0"/>
         <v>3.4592500345924918E-4</v>
       </c>
     </row>
@@ -2941,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="9">
-        <f>((B44/A44)-1)/C44</f>
+        <f t="shared" si="0"/>
         <v>3.4918639569802423E-4</v>
       </c>
     </row>
@@ -2959,7 +2985,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="9">
-        <f>((B45/A45)-1)/C45</f>
+        <f t="shared" si="0"/>
         <v>3.623188405797108E-4</v>
       </c>
     </row>
@@ -2977,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="9">
-        <f>((B46/A46)-1)/C46</f>
+        <f t="shared" si="0"/>
         <v>3.6636746656896861E-4</v>
       </c>
     </row>
@@ -2995,7 +3021,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="9">
-        <f>((B47/A47)-1)/C47</f>
+        <f t="shared" si="0"/>
         <v>3.706792697618389E-4</v>
       </c>
     </row>
@@ -3013,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="9">
-        <f>((B48/A48)-1)/C48</f>
+        <f t="shared" si="0"/>
         <v>3.7202380952381005E-4</v>
       </c>
     </row>
@@ -3031,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="9">
-        <f>((B49/A49)-1)/C49</f>
+        <f t="shared" si="0"/>
         <v>3.8073481819912415E-4</v>
       </c>
     </row>
@@ -3049,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="9">
-        <f>((B50/A50)-1)/C50</f>
+        <f t="shared" si="0"/>
         <v>3.8402457757296331E-4</v>
       </c>
     </row>
@@ -3067,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="9">
-        <f>((B51/A51)-1)/C51</f>
+        <f t="shared" si="0"/>
         <v>3.9040713887339629E-4</v>
       </c>
     </row>
@@ -3085,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="9">
-        <f>((B52/A52)-1)/C52</f>
+        <f t="shared" si="0"/>
         <v>3.9920159680638791E-4</v>
       </c>
     </row>
@@ -3103,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="9">
-        <f>((B53/A53)-1)/C53</f>
+        <f t="shared" si="0"/>
         <v>4.0040040040040123E-4</v>
       </c>
     </row>
@@ -3121,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="9">
-        <f>((B54/A54)-1)/C54</f>
+        <f t="shared" si="0"/>
         <v>4.5980031529164393E-4</v>
       </c>
     </row>
@@ -3139,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="9">
-        <f>((B55/A55)-1)/C55</f>
+        <f t="shared" si="0"/>
         <v>4.6085983277371835E-4</v>
       </c>
     </row>
@@ -3157,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="9">
-        <f>((B56/A56)-1)/C56</f>
+        <f t="shared" si="0"/>
         <v>4.7021943573667804E-4</v>
       </c>
     </row>
@@ -3175,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="9">
-        <f>((B57/A57)-1)/C57</f>
+        <f t="shared" si="0"/>
         <v>4.903563255966002E-4</v>
       </c>
     </row>
@@ -3193,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="9">
-        <f>((B58/A58)-1)/C58</f>
+        <f t="shared" si="0"/>
         <v>5.0231062889290841E-4</v>
       </c>
     </row>
@@ -3211,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="9">
-        <f>((B59/A59)-1)/C59</f>
+        <f t="shared" si="0"/>
         <v>5.1894135962636263E-4</v>
       </c>
     </row>
@@ -3229,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="9">
-        <f>((B60/A60)-1)/C60</f>
+        <f t="shared" si="0"/>
         <v>5.4367524465385965E-4</v>
       </c>
     </row>
@@ -3247,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="9">
-        <f>((B61/A61)-1)/C61</f>
+        <f t="shared" si="0"/>
         <v>5.601792573623562E-4</v>
       </c>
     </row>
@@ -3265,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="9">
-        <f>((B62/A62)-1)/C62</f>
+        <f t="shared" si="0"/>
         <v>5.9630292188431828E-4</v>
       </c>
     </row>
@@ -3283,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="9">
-        <f>((B63/A63)-1)/C63</f>
+        <f t="shared" si="0"/>
         <v>5.988023952095856E-4</v>
       </c>
     </row>
@@ -3301,7 +3327,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="9">
-        <f>((B64/A64)-1)/C64</f>
+        <f t="shared" si="0"/>
         <v>6.0827250608272432E-4</v>
       </c>
     </row>
@@ -3319,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="9">
-        <f>((B65/A65)-1)/C65</f>
+        <f t="shared" si="0"/>
         <v>6.1728395061728426E-4</v>
       </c>
     </row>
@@ -3337,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="9">
-        <f>((B66/A66)-1)/C66</f>
+        <f t="shared" ref="E66:E129" si="1">((B66/A66)-1)/C66</f>
         <v>6.3051702395964756E-4</v>
       </c>
     </row>
@@ -3355,7 +3381,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="9">
-        <f>((B67/A67)-1)/C67</f>
+        <f t="shared" si="1"/>
         <v>6.3211125158027916E-4</v>
       </c>
     </row>
@@ -3373,7 +3399,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="9">
-        <f>((B68/A68)-1)/C68</f>
+        <f t="shared" si="1"/>
         <v>6.3311174422285533E-4</v>
       </c>
     </row>
@@ -3391,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="9">
-        <f>((B69/A69)-1)/C69</f>
+        <f t="shared" si="1"/>
         <v>6.3714558776680722E-4</v>
       </c>
     </row>
@@ -3409,7 +3435,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="9">
-        <f>((B70/A70)-1)/C70</f>
+        <f t="shared" si="1"/>
         <v>6.5559440559440584E-4</v>
       </c>
     </row>
@@ -3427,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="9">
-        <f>((B71/A71)-1)/C71</f>
+        <f t="shared" si="1"/>
         <v>6.5681444991789952E-4</v>
       </c>
     </row>
@@ -3445,7 +3471,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="9">
-        <f>((B72/A72)-1)/C72</f>
+        <f t="shared" si="1"/>
         <v>6.6538026482134631E-4</v>
       </c>
     </row>
@@ -3463,7 +3489,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="9">
-        <f>((B73/A73)-1)/C73</f>
+        <f t="shared" si="1"/>
         <v>7.0701357466063314E-4</v>
       </c>
     </row>
@@ -3481,7 +3507,7 @@
         <v>5</v>
       </c>
       <c r="E74" s="6">
-        <f>((B74/A74)-1)/C74</f>
+        <f t="shared" si="1"/>
         <v>7.1123755334281513E-4</v>
       </c>
     </row>
@@ -3499,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="6">
-        <f>((B75/A75)-1)/C75</f>
+        <f t="shared" si="1"/>
         <v>7.5127138233934299E-4</v>
       </c>
     </row>
@@ -3517,7 +3543,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="9">
-        <f>((B76/A76)-1)/C76</f>
+        <f t="shared" si="1"/>
         <v>7.7972709551656755E-4</v>
       </c>
     </row>
@@ -3535,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="9">
-        <f>((B77/A77)-1)/C77</f>
+        <f t="shared" si="1"/>
         <v>7.972574344255757E-4</v>
       </c>
     </row>
@@ -3553,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="9">
-        <f>((B78/A78)-1)/C78</f>
+        <f t="shared" si="1"/>
         <v>8.0128205128205125E-4</v>
       </c>
     </row>
@@ -3571,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="9">
-        <f>((B79/A79)-1)/C79</f>
+        <f t="shared" si="1"/>
         <v>8.2236842105263153E-4</v>
       </c>
     </row>
@@ -3589,7 +3615,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="9">
-        <f>((B80/A80)-1)/C80</f>
+        <f t="shared" si="1"/>
         <v>8.499787505312367E-4</v>
       </c>
     </row>
@@ -3607,7 +3633,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="9">
-        <f>((B81/A81)-1)/C81</f>
+        <f t="shared" si="1"/>
         <v>8.5470085470085665E-4</v>
       </c>
     </row>
@@ -3625,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="9">
-        <f>((B82/A82)-1)/C82</f>
+        <f t="shared" si="1"/>
         <v>8.6058519793459566E-4</v>
       </c>
     </row>
@@ -3643,7 +3669,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="6">
-        <f>((B83/A83)-1)/C83</f>
+        <f t="shared" si="1"/>
         <v>8.8990592423086661E-4</v>
       </c>
     </row>
@@ -3661,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="6">
-        <f>((B84/A84)-1)/C84</f>
+        <f t="shared" si="1"/>
         <v>8.9332241494826173E-4</v>
       </c>
     </row>
@@ -3679,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="9">
-        <f>((B85/A85)-1)/C85</f>
+        <f t="shared" si="1"/>
         <v>9.018759018759009E-4</v>
       </c>
     </row>
@@ -3697,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="9">
-        <f>((B86/A86)-1)/C86</f>
+        <f t="shared" si="1"/>
         <v>9.0909090909090942E-4</v>
       </c>
     </row>
@@ -3715,7 +3741,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="9">
-        <f>((B87/A87)-1)/C87</f>
+        <f t="shared" si="1"/>
         <v>9.1791240493050005E-4</v>
       </c>
     </row>
@@ -3733,7 +3759,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="9">
-        <f>((B88/A88)-1)/C88</f>
+        <f t="shared" si="1"/>
         <v>9.4482237339380297E-4</v>
       </c>
     </row>
@@ -3751,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="9">
-        <f>((B89/A89)-1)/C89</f>
+        <f t="shared" si="1"/>
         <v>9.6711798839458306E-4</v>
       </c>
     </row>
@@ -3769,7 +3795,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="9">
-        <f>((B90/A90)-1)/C90</f>
+        <f t="shared" si="1"/>
         <v>9.7465886939571188E-4</v>
       </c>
     </row>
@@ -3787,7 +3813,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="9">
-        <f>((B91/A91)-1)/C91</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
     </row>
@@ -3805,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="9">
-        <f>((B92/A92)-1)/C92</f>
+        <f t="shared" si="1"/>
         <v>1.0043942247332093E-3</v>
       </c>
     </row>
@@ -3823,7 +3849,7 @@
         <v>5</v>
       </c>
       <c r="E93" s="6">
-        <f>((B93/A93)-1)/C93</f>
+        <f t="shared" si="1"/>
         <v>1.0195412064570944E-3</v>
       </c>
     </row>
@@ -3841,7 +3867,7 @@
         <v>4</v>
       </c>
       <c r="E94" s="6">
-        <f>((B94/A94)-1)/C94</f>
+        <f t="shared" si="1"/>
         <v>1.0327022375215137E-3</v>
       </c>
     </row>
@@ -3859,7 +3885,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="9">
-        <f>((B95/A95)-1)/C95</f>
+        <f t="shared" si="1"/>
         <v>1.0576414595452133E-3</v>
       </c>
     </row>
@@ -3877,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="E96" s="9">
-        <f>((B96/A96)-1)/C96</f>
+        <f t="shared" si="1"/>
         <v>1.089324618736384E-3</v>
       </c>
     </row>
@@ -3895,7 +3921,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="6">
-        <f>((B97/A97)-1)/C97</f>
+        <f t="shared" si="1"/>
         <v>1.0893246187363883E-3</v>
       </c>
     </row>
@@ -3913,7 +3939,7 @@
         <v>4</v>
       </c>
       <c r="E98" s="6">
-        <f>((B98/A98)-1)/C98</f>
+        <f t="shared" si="1"/>
         <v>1.0991207034372495E-3</v>
       </c>
     </row>
@@ -3931,7 +3957,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="9">
-        <f>((B99/A99)-1)/C99</f>
+        <f t="shared" si="1"/>
         <v>1.1067388096409252E-3</v>
       </c>
     </row>
@@ -3949,7 +3975,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="9">
-        <f>((B100/A100)-1)/C100</f>
+        <f t="shared" si="1"/>
         <v>1.1111111111111115E-3</v>
       </c>
     </row>
@@ -3967,7 +3993,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="9">
-        <f>((B101/A101)-1)/C101</f>
+        <f t="shared" si="1"/>
         <v>1.1257035647279561E-3</v>
       </c>
     </row>
@@ -3985,7 +4011,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="9">
-        <f>((B102/A102)-1)/C102</f>
+        <f t="shared" si="1"/>
         <v>1.129022141378662E-3</v>
       </c>
     </row>
@@ -4003,7 +4029,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="6">
-        <f>((B103/A103)-1)/C103</f>
+        <f t="shared" si="1"/>
         <v>1.1397310234784591E-3</v>
       </c>
     </row>
@@ -4021,7 +4047,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="6">
-        <f>((B104/A104)-1)/C104</f>
+        <f t="shared" si="1"/>
         <v>1.1714877894926556E-3</v>
       </c>
     </row>
@@ -4039,7 +4065,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="9">
-        <f>((B105/A105)-1)/C105</f>
+        <f t="shared" si="1"/>
         <v>1.1748120300751896E-3</v>
       </c>
     </row>
@@ -4057,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="11">
-        <f>((B106/A106)-1)/C106</f>
+        <f t="shared" si="1"/>
         <v>1.19560019129603E-3</v>
       </c>
     </row>
@@ -4075,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="11">
-        <f>((B107/A107)-1)/C107</f>
+        <f t="shared" si="1"/>
         <v>1.2844298558584285E-3</v>
       </c>
     </row>
@@ -4093,7 +4119,7 @@
         <v>4</v>
       </c>
       <c r="E108" s="11">
-        <f>((B108/A108)-1)/C108</f>
+        <f t="shared" si="1"/>
         <v>1.3020833333333333E-3</v>
       </c>
     </row>
@@ -4111,7 +4137,7 @@
         <v>4</v>
       </c>
       <c r="E109" s="11">
-        <f>((B109/A109)-1)/C109</f>
+        <f t="shared" si="1"/>
         <v>1.358695652173913E-3</v>
       </c>
     </row>
@@ -4129,7 +4155,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="6">
-        <f>((B110/A110)-1)/C110</f>
+        <f t="shared" si="1"/>
         <v>1.3842746400885926E-3</v>
       </c>
     </row>
@@ -4147,7 +4173,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="6">
-        <f>((B111/A111)-1)/C111</f>
+        <f t="shared" si="1"/>
         <v>1.4084507042253502E-3</v>
       </c>
     </row>
@@ -4165,7 +4191,7 @@
         <v>5</v>
       </c>
       <c r="E112" s="7">
-        <f>((B112/A112)-1)/C112</f>
+        <f t="shared" si="1"/>
         <v>1.4093137254901956E-3</v>
       </c>
     </row>
@@ -4183,7 +4209,7 @@
         <v>5</v>
       </c>
       <c r="E113" s="7">
-        <f>((B113/A113)-1)/C113</f>
+        <f t="shared" si="1"/>
         <v>1.4179369018078717E-3</v>
       </c>
     </row>
@@ -4201,7 +4227,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="7">
-        <f>((B114/A114)-1)/C114</f>
+        <f t="shared" si="1"/>
         <v>1.4430014430014437E-3</v>
       </c>
     </row>
@@ -4219,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="9">
-        <f>((B115/A115)-1)/C115</f>
+        <f t="shared" si="1"/>
         <v>1.4705882352941124E-3</v>
       </c>
     </row>
@@ -4237,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="6">
-        <f>((B116/A116)-1)/C116</f>
+        <f t="shared" si="1"/>
         <v>1.472754050073637E-3</v>
       </c>
     </row>
@@ -4255,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="6">
-        <f>((B117/A117)-1)/C117</f>
+        <f t="shared" si="1"/>
         <v>1.4854426619132493E-3</v>
       </c>
     </row>
@@ -4273,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="9">
-        <f>((B118/A118)-1)/C118</f>
+        <f t="shared" si="1"/>
         <v>1.4880952380952397E-3</v>
       </c>
     </row>
@@ -4291,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="7">
-        <f>((B119/A119)-1)/C119</f>
+        <f t="shared" si="1"/>
         <v>1.4981273408239697E-3</v>
       </c>
     </row>
@@ -4309,7 +4335,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="7">
-        <f>((B120/A120)-1)/C120</f>
+        <f t="shared" si="1"/>
         <v>1.5197568389057694E-3</v>
       </c>
     </row>
@@ -4327,7 +4353,7 @@
         <v>5</v>
       </c>
       <c r="E121" s="9">
-        <f>((B121/A121)-1)/C121</f>
+        <f t="shared" si="1"/>
         <v>1.5931578064732525E-3</v>
       </c>
     </row>
@@ -4345,7 +4371,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="9">
-        <f>((B122/A122)-1)/C122</f>
+        <f t="shared" si="1"/>
         <v>1.615322487596631E-3</v>
       </c>
     </row>
@@ -4363,7 +4389,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="7">
-        <f>((B123/A123)-1)/C123</f>
+        <f t="shared" si="1"/>
         <v>1.625261202693289E-3</v>
       </c>
     </row>
@@ -4381,7 +4407,7 @@
         <v>5</v>
       </c>
       <c r="E124" s="7">
-        <f>((B124/A124)-1)/C124</f>
+        <f t="shared" si="1"/>
         <v>1.6355140186915889E-3</v>
       </c>
     </row>
@@ -4399,7 +4425,7 @@
         <v>5</v>
       </c>
       <c r="E125" s="7">
-        <f>((B125/A125)-1)/C125</f>
+        <f t="shared" si="1"/>
         <v>1.6387786786268754E-3</v>
       </c>
     </row>
@@ -4417,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="E126" s="7">
-        <f>((B126/A126)-1)/C126</f>
+        <f t="shared" si="1"/>
         <v>1.6420361247947435E-3</v>
       </c>
     </row>
@@ -4435,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="7">
-        <f>((B127/A127)-1)/C127</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666681E-3</v>
       </c>
     </row>
@@ -4453,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="9">
-        <f>((B128/A128)-1)/C128</f>
+        <f t="shared" si="1"/>
         <v>1.6807899712865055E-3</v>
       </c>
     </row>
@@ -4471,7 +4497,7 @@
         <v>4</v>
       </c>
       <c r="E129" s="9">
-        <f>((B129/A129)-1)/C129</f>
+        <f t="shared" si="1"/>
         <v>1.7018379850238256E-3</v>
       </c>
     </row>
@@ -4489,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="9">
-        <f>((B130/A130)-1)/C130</f>
+        <f t="shared" ref="E130:E193" si="2">((B130/A130)-1)/C130</f>
         <v>1.7211703958691902E-3</v>
       </c>
     </row>
@@ -4507,7 +4533,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="9">
-        <f>((B131/A131)-1)/C131</f>
+        <f t="shared" si="2"/>
         <v>1.7415534656914002E-3</v>
       </c>
     </row>
@@ -4525,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="9">
-        <f>((B132/A132)-1)/C132</f>
+        <f t="shared" si="2"/>
         <v>1.7712550607287441E-3</v>
       </c>
     </row>
@@ -4543,7 +4569,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="7">
-        <f>((B133/A133)-1)/C133</f>
+        <f t="shared" si="2"/>
         <v>1.7921146953405003E-3</v>
       </c>
     </row>
@@ -4561,7 +4587,7 @@
         <v>4</v>
       </c>
       <c r="E134" s="7">
-        <f>((B134/A134)-1)/C134</f>
+        <f t="shared" si="2"/>
         <v>1.7921146953405027E-3</v>
       </c>
     </row>
@@ -4579,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="E135" s="6">
-        <f>((B135/A135)-1)/C135</f>
+        <f t="shared" si="2"/>
         <v>1.7950842308754487E-3</v>
       </c>
     </row>
@@ -4597,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="6">
-        <f>((B136/A136)-1)/C136</f>
+        <f t="shared" si="2"/>
         <v>1.8766127140511372E-3</v>
       </c>
     </row>
@@ -4615,7 +4641,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="9">
-        <f>((B137/A137)-1)/C137</f>
+        <f t="shared" si="2"/>
         <v>1.8984027232259761E-3</v>
       </c>
     </row>
@@ -4633,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="9">
-        <f>((B138/A138)-1)/C138</f>
+        <f t="shared" si="2"/>
         <v>1.9094380796508459E-3</v>
       </c>
     </row>
@@ -4651,7 +4677,7 @@
         <v>4</v>
       </c>
       <c r="E139" s="7">
-        <f>((B139/A139)-1)/C139</f>
+        <f t="shared" si="2"/>
         <v>1.9607843137254923E-3</v>
       </c>
     </row>
@@ -4669,7 +4695,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="7">
-        <f>((B140/A140)-1)/C140</f>
+        <f t="shared" si="2"/>
         <v>1.9847570657351558E-3</v>
       </c>
     </row>
@@ -4687,7 +4713,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="9">
-        <f>((B141/A141)-1)/C141</f>
+        <f t="shared" si="2"/>
         <v>2.0177562550443956E-3</v>
       </c>
     </row>
@@ -4705,7 +4731,7 @@
         <v>4</v>
       </c>
       <c r="E142" s="9">
-        <f>((B142/A142)-1)/C142</f>
+        <f t="shared" si="2"/>
         <v>2.0242914979757072E-3</v>
       </c>
     </row>
@@ -4723,7 +4749,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="9">
-        <f>((B143/A143)-1)/C143</f>
+        <f t="shared" si="2"/>
         <v>2.1604493734696832E-3</v>
       </c>
     </row>
@@ -4741,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="9">
-        <f>((B144/A144)-1)/C144</f>
+        <f t="shared" si="2"/>
         <v>2.1718146718146701E-3</v>
       </c>
     </row>
@@ -4759,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="9">
-        <f>((B145/A145)-1)/C145</f>
+        <f t="shared" si="2"/>
         <v>2.2175536881419234E-3</v>
       </c>
     </row>
@@ -4777,7 +4803,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="9">
-        <f>((B146/A146)-1)/C146</f>
+        <f t="shared" si="2"/>
         <v>2.2694696607740076E-3</v>
       </c>
     </row>
@@ -4795,7 +4821,7 @@
         <v>4</v>
       </c>
       <c r="E147" s="9">
-        <f>((B147/A147)-1)/C147</f>
+        <f t="shared" si="2"/>
         <v>2.2922212363206164E-3</v>
       </c>
     </row>
@@ -4813,7 +4839,7 @@
         <v>4</v>
       </c>
       <c r="E148" s="9">
-        <f>((B148/A148)-1)/C148</f>
+        <f t="shared" si="2"/>
         <v>2.3009664058904734E-3</v>
       </c>
     </row>
@@ -4831,7 +4857,7 @@
         <v>4</v>
       </c>
       <c r="E149" s="9">
-        <f>((B149/A149)-1)/C149</f>
+        <f t="shared" si="2"/>
         <v>2.333333333333334E-3</v>
       </c>
     </row>
@@ -4849,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="E150" s="9">
-        <f>((B150/A150)-1)/C150</f>
+        <f t="shared" si="2"/>
         <v>2.3640661938534287E-3</v>
       </c>
     </row>
@@ -4867,7 +4893,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="6">
-        <f>((B151/A151)-1)/C151</f>
+        <f t="shared" si="2"/>
         <v>2.4154589371980688E-3</v>
       </c>
     </row>
@@ -4885,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="E152" s="6">
-        <f>((B152/A152)-1)/C152</f>
+        <f t="shared" si="2"/>
         <v>2.4327784891165181E-3</v>
       </c>
     </row>
@@ -4903,7 +4929,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="9">
-        <f>((B153/A153)-1)/C153</f>
+        <f t="shared" si="2"/>
         <v>2.4479804161566731E-3</v>
       </c>
     </row>
@@ -4921,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="E154" s="9">
-        <f>((B154/A154)-1)/C154</f>
+        <f t="shared" si="2"/>
         <v>2.5117739403453664E-3</v>
       </c>
     </row>
@@ -4939,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="E155" s="9">
-        <f>((B155/A155)-1)/C155</f>
+        <f t="shared" si="2"/>
         <v>2.522357257509746E-3</v>
       </c>
     </row>
@@ -4957,7 +4983,7 @@
         <v>4</v>
       </c>
       <c r="E156" s="9">
-        <f>((B156/A156)-1)/C156</f>
+        <f t="shared" si="2"/>
         <v>2.6292725679228752E-3</v>
       </c>
     </row>
@@ -4975,7 +5001,7 @@
         <v>4</v>
       </c>
       <c r="E157" s="9">
-        <f>((B157/A157)-1)/C157</f>
+        <f t="shared" si="2"/>
         <v>2.6415891800507176E-3</v>
       </c>
     </row>
@@ -4993,7 +5019,7 @@
         <v>4</v>
       </c>
       <c r="E158" s="9">
-        <f>((B158/A158)-1)/C158</f>
+        <f t="shared" si="2"/>
         <v>2.6455026455026467E-3</v>
       </c>
     </row>
@@ -5011,7 +5037,7 @@
         <v>4</v>
       </c>
       <c r="E159" s="9">
-        <f>((B159/A159)-1)/C159</f>
+        <f t="shared" si="2"/>
         <v>2.7241594022415954E-3</v>
       </c>
     </row>
@@ -5029,7 +5055,7 @@
         <v>4</v>
       </c>
       <c r="E160" s="9">
-        <f>((B160/A160)-1)/C160</f>
+        <f t="shared" si="2"/>
         <v>2.7281746031746004E-3</v>
       </c>
     </row>
@@ -5047,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="E161" s="9">
-        <f>((B161/A161)-1)/C161</f>
+        <f t="shared" si="2"/>
         <v>2.7637587118481128E-3</v>
       </c>
     </row>
@@ -5065,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="E162" s="7">
-        <f>((B162/A162)-1)/C162</f>
+        <f t="shared" si="2"/>
         <v>2.7777777777777827E-3</v>
       </c>
     </row>
@@ -5083,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="E163" s="7">
-        <f>((B163/A163)-1)/C163</f>
+        <f t="shared" si="2"/>
         <v>2.7870680044593098E-3</v>
       </c>
     </row>
@@ -5101,7 +5127,7 @@
         <v>4</v>
       </c>
       <c r="E164" s="9">
-        <f>((B164/A164)-1)/C164</f>
+        <f t="shared" si="2"/>
         <v>2.8169014084507035E-3</v>
       </c>
     </row>
@@ -5119,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="E165" s="9">
-        <f>((B165/A165)-1)/C165</f>
+        <f t="shared" si="2"/>
         <v>2.8476506881822475E-3</v>
       </c>
     </row>
@@ -5137,7 +5163,7 @@
         <v>4</v>
       </c>
       <c r="E166" s="9">
-        <f>((B166/A166)-1)/C166</f>
+        <f t="shared" si="2"/>
         <v>2.9002663509914177E-3</v>
       </c>
     </row>
@@ -5155,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="E167" s="9">
-        <f>((B167/A167)-1)/C167</f>
+        <f t="shared" si="2"/>
         <v>2.9106029106029116E-3</v>
       </c>
     </row>
@@ -5173,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="E168" s="9">
-        <f>((B168/A168)-1)/C168</f>
+        <f t="shared" si="2"/>
         <v>2.9239766081871356E-3</v>
       </c>
     </row>
@@ -5191,7 +5217,7 @@
         <v>4</v>
       </c>
       <c r="E169" s="9">
-        <f>((B169/A169)-1)/C169</f>
+        <f t="shared" si="2"/>
         <v>2.9354207436399203E-3</v>
       </c>
     </row>
@@ -5209,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="E170" s="7">
-        <f>((B170/A170)-1)/C170</f>
+        <f t="shared" si="2"/>
         <v>3.0855539971949516E-3</v>
       </c>
     </row>
@@ -5227,7 +5253,7 @@
         <v>4</v>
       </c>
       <c r="E171" s="7">
-        <f>((B171/A171)-1)/C171</f>
+        <f t="shared" si="2"/>
         <v>3.0959752321981391E-3</v>
       </c>
     </row>
@@ -5245,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="E172" s="9">
-        <f>((B172/A172)-1)/C172</f>
+        <f t="shared" si="2"/>
         <v>3.1017369727047144E-3</v>
       </c>
     </row>
@@ -5263,7 +5289,7 @@
         <v>4</v>
       </c>
       <c r="E173" s="9">
-        <f>((B173/A173)-1)/C173</f>
+        <f t="shared" si="2"/>
         <v>3.1397174254317148E-3</v>
       </c>
     </row>
@@ -5281,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="E174" s="9">
-        <f>((B174/A174)-1)/C174</f>
+        <f t="shared" si="2"/>
         <v>3.161698283649502E-3</v>
       </c>
     </row>
@@ -5299,7 +5325,7 @@
         <v>4</v>
       </c>
       <c r="E175" s="9">
-        <f>((B175/A175)-1)/C175</f>
+        <f t="shared" si="2"/>
         <v>3.1862745098039211E-3</v>
       </c>
     </row>
@@ -5317,7 +5343,7 @@
         <v>4</v>
       </c>
       <c r="E176" s="9">
-        <f>((B176/A176)-1)/C176</f>
+        <f t="shared" si="2"/>
         <v>3.2362459546925581E-3</v>
       </c>
     </row>
@@ -5335,7 +5361,7 @@
         <v>4</v>
       </c>
       <c r="E177" s="9">
-        <f>((B177/A177)-1)/C177</f>
+        <f t="shared" si="2"/>
         <v>3.244412400865176E-3</v>
       </c>
     </row>
@@ -5353,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="E178" s="9">
-        <f>((B178/A178)-1)/C178</f>
+        <f t="shared" si="2"/>
         <v>3.2479249368459026E-3</v>
       </c>
     </row>
@@ -5371,7 +5397,7 @@
         <v>4</v>
       </c>
       <c r="E179" s="9">
-        <f>((B179/A179)-1)/C179</f>
+        <f t="shared" si="2"/>
         <v>3.2786885245901644E-3</v>
       </c>
     </row>
@@ -5389,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="E180" s="9">
-        <f>((B180/A180)-1)/C180</f>
+        <f t="shared" si="2"/>
         <v>3.2901952182496164E-3</v>
       </c>
     </row>
@@ -5407,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="E181" s="9">
-        <f>((B181/A181)-1)/C181</f>
+        <f t="shared" si="2"/>
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
@@ -5425,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="E182" s="9">
-        <f>((B182/A182)-1)/C182</f>
+        <f t="shared" si="2"/>
         <v>3.3539731682146537E-3</v>
       </c>
     </row>
@@ -5443,7 +5469,7 @@
         <v>4</v>
       </c>
       <c r="E183" s="9">
-        <f>((B183/A183)-1)/C183</f>
+        <f t="shared" si="2"/>
         <v>3.4455340577789545E-3</v>
       </c>
     </row>
@@ -5461,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="E184" s="9">
-        <f>((B184/A184)-1)/C184</f>
+        <f t="shared" si="2"/>
         <v>3.5546382295608293E-3</v>
       </c>
     </row>
@@ -5479,7 +5505,7 @@
         <v>4</v>
       </c>
       <c r="E185" s="9">
-        <f>((B185/A185)-1)/C185</f>
+        <f t="shared" si="2"/>
         <v>3.5803795202291443E-3</v>
       </c>
     </row>
@@ -5497,7 +5523,7 @@
         <v>4</v>
       </c>
       <c r="E186" s="9">
-        <f>((B186/A186)-1)/C186</f>
+        <f t="shared" si="2"/>
         <v>3.6437246963562753E-3</v>
       </c>
     </row>
@@ -5515,7 +5541,7 @@
         <v>4</v>
       </c>
       <c r="E187" s="9">
-        <f>((B187/A187)-1)/C187</f>
+        <f t="shared" si="2"/>
         <v>3.6517962889853926E-3</v>
       </c>
     </row>
@@ -5533,7 +5559,7 @@
         <v>4</v>
       </c>
       <c r="E188" s="9">
-        <f>((B188/A188)-1)/C188</f>
+        <f t="shared" si="2"/>
         <v>3.7100456621004529E-3</v>
       </c>
     </row>
@@ -5551,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="E189" s="9">
-        <f>((B189/A189)-1)/C189</f>
+        <f t="shared" si="2"/>
         <v>3.7348272642390261E-3</v>
       </c>
     </row>
@@ -5569,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="E190" s="7">
-        <f>((B190/A190)-1)/C190</f>
+        <f t="shared" si="2"/>
         <v>3.7634408602150505E-3</v>
       </c>
     </row>
@@ -5587,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="E191" s="7">
-        <f>((B191/A191)-1)/C191</f>
+        <f t="shared" si="2"/>
         <v>3.7763253449527947E-3</v>
       </c>
     </row>
@@ -5605,7 +5631,7 @@
         <v>4</v>
       </c>
       <c r="E192" s="9">
-        <f>((B192/A192)-1)/C192</f>
+        <f t="shared" si="2"/>
         <v>3.8130515306678292E-3</v>
       </c>
     </row>
@@ -5623,7 +5649,7 @@
         <v>4</v>
       </c>
       <c r="E193" s="9">
-        <f>((B193/A193)-1)/C193</f>
+        <f t="shared" si="2"/>
         <v>3.8461538461538503E-3</v>
       </c>
     </row>
@@ -5641,7 +5667,7 @@
         <v>4</v>
       </c>
       <c r="E194" s="9">
-        <f>((B194/A194)-1)/C194</f>
+        <f t="shared" ref="E194:E257" si="3">((B194/A194)-1)/C194</f>
         <v>3.8738240177089087E-3</v>
       </c>
     </row>
@@ -5659,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="E195" s="9">
-        <f>((B195/A195)-1)/C195</f>
+        <f t="shared" si="3"/>
         <v>3.9144835892803379E-3</v>
       </c>
     </row>
@@ -5677,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="E196" s="9">
-        <f>((B196/A196)-1)/C196</f>
+        <f t="shared" si="3"/>
         <v>3.9473684210526256E-3</v>
       </c>
     </row>
@@ -5695,7 +5721,7 @@
         <v>4</v>
       </c>
       <c r="E197" s="9">
-        <f>((B197/A197)-1)/C197</f>
+        <f t="shared" si="3"/>
         <v>3.9645830580150631E-3</v>
       </c>
     </row>
@@ -5713,7 +5739,7 @@
         <v>4</v>
       </c>
       <c r="E198" s="9">
-        <f>((B198/A198)-1)/C198</f>
+        <f t="shared" si="3"/>
         <v>4.0360873694207005E-3</v>
       </c>
     </row>
@@ -5731,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="E199" s="9">
-        <f>((B199/A199)-1)/C199</f>
+        <f t="shared" si="3"/>
         <v>4.1182170542635637E-3</v>
       </c>
     </row>
@@ -5749,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="E200" s="9">
-        <f>((B200/A200)-1)/C200</f>
+        <f t="shared" si="3"/>
         <v>4.147465437788018E-3</v>
       </c>
     </row>
@@ -5767,7 +5793,7 @@
         <v>4</v>
       </c>
       <c r="E201" s="9">
-        <f>((B201/A201)-1)/C201</f>
+        <f t="shared" si="3"/>
         <v>4.1993281075027979E-3</v>
       </c>
     </row>
@@ -5785,7 +5811,7 @@
         <v>4</v>
       </c>
       <c r="E202" s="9">
-        <f>((B202/A202)-1)/C202</f>
+        <f t="shared" si="3"/>
         <v>4.2087542087542069E-3</v>
       </c>
     </row>
@@ -5803,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="E203" s="9">
-        <f>((B203/A203)-1)/C203</f>
+        <f t="shared" si="3"/>
         <v>4.2253521126760568E-3</v>
       </c>
     </row>
@@ -5821,7 +5847,7 @@
         <v>4</v>
       </c>
       <c r="E204" s="9">
-        <f>((B204/A204)-1)/C204</f>
+        <f t="shared" si="3"/>
         <v>4.2372881355932273E-3</v>
       </c>
     </row>
@@ -5839,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="E205" s="9">
-        <f>((B205/A205)-1)/C205</f>
+        <f t="shared" si="3"/>
         <v>4.2432814710042467E-3</v>
       </c>
     </row>
@@ -5857,7 +5883,7 @@
         <v>4</v>
       </c>
       <c r="E206" s="9">
-        <f>((B206/A206)-1)/C206</f>
+        <f t="shared" si="3"/>
         <v>4.2820439623180127E-3</v>
       </c>
     </row>
@@ -5875,7 +5901,7 @@
         <v>4</v>
       </c>
       <c r="E207" s="9">
-        <f>((B207/A207)-1)/C207</f>
+        <f t="shared" si="3"/>
         <v>4.3215211754537592E-3</v>
       </c>
     </row>
@@ -5893,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="E208" s="9">
-        <f>((B208/A208)-1)/C208</f>
+        <f t="shared" si="3"/>
         <v>4.3980208905992305E-3</v>
       </c>
     </row>
@@ -5911,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="E209" s="9">
-        <f>((B209/A209)-1)/C209</f>
+        <f t="shared" si="3"/>
         <v>4.4253812636165582E-3</v>
       </c>
     </row>
@@ -5929,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="E210" s="9">
-        <f>((B210/A210)-1)/C210</f>
+        <f t="shared" si="3"/>
         <v>4.464285714285714E-3</v>
       </c>
     </row>
@@ -5947,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="E211" s="9">
-        <f>((B211/A211)-1)/C211</f>
+        <f t="shared" si="3"/>
         <v>4.481434058898847E-3</v>
       </c>
     </row>
@@ -5965,7 +5991,7 @@
         <v>4</v>
       </c>
       <c r="E212" s="9">
-        <f>((B212/A212)-1)/C212</f>
+        <f t="shared" si="3"/>
         <v>4.5078888054094664E-3</v>
       </c>
     </row>
@@ -5983,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="E213" s="7">
-        <f>((B213/A213)-1)/C213</f>
+        <f t="shared" si="3"/>
         <v>4.5445155959512474E-3</v>
       </c>
     </row>
@@ -6001,7 +6027,7 @@
         <v>4</v>
       </c>
       <c r="E214" s="7">
-        <f>((B214/A214)-1)/C214</f>
+        <f t="shared" si="3"/>
         <v>4.7058823529411804E-3</v>
       </c>
     </row>
@@ -6019,7 +6045,7 @@
         <v>4</v>
       </c>
       <c r="E215" s="9">
-        <f>((B215/A215)-1)/C215</f>
+        <f t="shared" si="3"/>
         <v>4.7095761381475672E-3</v>
       </c>
     </row>
@@ -6037,7 +6063,7 @@
         <v>4</v>
       </c>
       <c r="E216" s="9">
-        <f>((B216/A216)-1)/C216</f>
+        <f t="shared" si="3"/>
         <v>4.7666009204470746E-3</v>
       </c>
     </row>
@@ -6055,7 +6081,7 @@
         <v>4</v>
       </c>
       <c r="E217" s="9">
-        <f>((B217/A217)-1)/C217</f>
+        <f t="shared" si="3"/>
         <v>4.7953964194373394E-3</v>
       </c>
     </row>
@@ -6073,7 +6099,7 @@
         <v>4</v>
       </c>
       <c r="E218" s="9">
-        <f>((B218/A218)-1)/C218</f>
+        <f t="shared" si="3"/>
         <v>4.7979797979797968E-3</v>
       </c>
     </row>
@@ -6091,7 +6117,7 @@
         <v>4</v>
       </c>
       <c r="E219" s="9">
-        <f>((B219/A219)-1)/C219</f>
+        <f t="shared" si="3"/>
         <v>4.8094709581945972E-3</v>
       </c>
     </row>
@@ -6109,7 +6135,7 @@
         <v>4</v>
       </c>
       <c r="E220" s="9">
-        <f>((B220/A220)-1)/C220</f>
+        <f t="shared" si="3"/>
         <v>4.8426150121065404E-3</v>
       </c>
     </row>
@@ -6127,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="E221" s="9">
-        <f>((B221/A221)-1)/C221</f>
+        <f t="shared" si="3"/>
         <v>4.901960784313728E-3</v>
       </c>
     </row>
@@ -6145,7 +6171,7 @@
         <v>4</v>
       </c>
       <c r="E222" s="9">
-        <f>((B222/A222)-1)/C222</f>
+        <f t="shared" si="3"/>
         <v>4.9398625429553271E-3</v>
       </c>
     </row>
@@ -6163,7 +6189,7 @@
         <v>4</v>
       </c>
       <c r="E223" s="9">
-        <f>((B223/A223)-1)/C223</f>
+        <f t="shared" si="3"/>
         <v>5.0305425799496923E-3</v>
       </c>
     </row>
@@ -6181,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="E224" s="9">
-        <f>((B224/A224)-1)/C224</f>
+        <f t="shared" si="3"/>
         <v>5.1759834368530029E-3</v>
       </c>
     </row>
@@ -6199,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="E225" s="9">
-        <f>((B225/A225)-1)/C225</f>
+        <f t="shared" si="3"/>
         <v>5.1800051800051788E-3</v>
       </c>
     </row>
@@ -6217,7 +6243,7 @@
         <v>4</v>
       </c>
       <c r="E226" s="9">
-        <f>((B226/A226)-1)/C226</f>
+        <f t="shared" si="3"/>
         <v>5.2246603970741903E-3</v>
       </c>
     </row>
@@ -6235,7 +6261,7 @@
         <v>4</v>
       </c>
       <c r="E227" s="9">
-        <f>((B227/A227)-1)/C227</f>
+        <f t="shared" si="3"/>
         <v>5.2655677655677651E-3</v>
       </c>
     </row>
@@ -6253,7 +6279,7 @@
         <v>4</v>
       </c>
       <c r="E228" s="9">
-        <f>((B228/A228)-1)/C228</f>
+        <f t="shared" si="3"/>
         <v>5.291005291005289E-3</v>
       </c>
     </row>
@@ -6271,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="E229" s="9">
-        <f>((B229/A229)-1)/C229</f>
+        <f t="shared" si="3"/>
         <v>5.4239223522694821E-3</v>
       </c>
     </row>
@@ -6289,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="E230" s="9">
-        <f>((B230/A230)-1)/C230</f>
+        <f t="shared" si="3"/>
         <v>5.4662641755731422E-3</v>
       </c>
     </row>
@@ -6307,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="E231" s="9">
-        <f>((B231/A231)-1)/C231</f>
+        <f t="shared" si="3"/>
         <v>5.5224013538790412E-3</v>
       </c>
     </row>
@@ -6325,7 +6351,7 @@
         <v>4</v>
       </c>
       <c r="E232" s="9">
-        <f>((B232/A232)-1)/C232</f>
+        <f t="shared" si="3"/>
         <v>5.6179775280898918E-3</v>
       </c>
     </row>
@@ -6343,7 +6369,7 @@
         <v>4</v>
       </c>
       <c r="E233" s="9">
-        <f>((B233/A233)-1)/C233</f>
+        <f t="shared" si="3"/>
         <v>5.6306306306306312E-3</v>
       </c>
     </row>
@@ -6361,7 +6387,7 @@
         <v>4</v>
       </c>
       <c r="E234" s="9">
-        <f>((B234/A234)-1)/C234</f>
+        <f t="shared" si="3"/>
         <v>5.7203389830508457E-3</v>
       </c>
     </row>
@@ -6379,7 +6405,7 @@
         <v>4</v>
       </c>
       <c r="E235" s="9">
-        <f>((B235/A235)-1)/C235</f>
+        <f t="shared" si="3"/>
         <v>5.7353941868377575E-3</v>
       </c>
     </row>
@@ -6397,7 +6423,7 @@
         <v>4</v>
       </c>
       <c r="E236" s="9">
-        <f>((B236/A236)-1)/C236</f>
+        <f t="shared" si="3"/>
         <v>5.8095238095238096E-3</v>
       </c>
     </row>
@@ -6415,7 +6441,7 @@
         <v>5</v>
       </c>
       <c r="E237" s="9">
-        <f>((B237/A237)-1)/C237</f>
+        <f t="shared" si="3"/>
         <v>5.8620689655172406E-3</v>
       </c>
     </row>
@@ -6433,7 +6459,7 @@
         <v>4</v>
       </c>
       <c r="E238" s="9">
-        <f>((B238/A238)-1)/C238</f>
+        <f t="shared" si="3"/>
         <v>5.8751529987760105E-3</v>
       </c>
     </row>
@@ -6451,7 +6477,7 @@
         <v>4</v>
       </c>
       <c r="E239" s="9">
-        <f>((B239/A239)-1)/C239</f>
+        <f t="shared" si="3"/>
         <v>5.9540293547493753E-3</v>
       </c>
     </row>
@@ -6469,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="E240" s="9">
-        <f>((B240/A240)-1)/C240</f>
+        <f t="shared" si="3"/>
         <v>6.0150375939849602E-3</v>
       </c>
     </row>
@@ -6487,7 +6513,7 @@
         <v>4</v>
       </c>
       <c r="E241" s="9">
-        <f>((B241/A241)-1)/C241</f>
+        <f t="shared" si="3"/>
         <v>6.079027355623102E-3</v>
       </c>
     </row>
@@ -6505,7 +6531,7 @@
         <v>4</v>
       </c>
       <c r="E242" s="9">
-        <f>((B242/A242)-1)/C242</f>
+        <f t="shared" si="3"/>
         <v>6.0975609756097615E-3</v>
       </c>
     </row>
@@ -6523,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="E243" s="9">
-        <f>((B243/A243)-1)/C243</f>
+        <f t="shared" si="3"/>
         <v>6.126427179058762E-3</v>
       </c>
     </row>
@@ -6541,7 +6567,7 @@
         <v>4</v>
       </c>
       <c r="E244" s="9">
-        <f>((B244/A244)-1)/C244</f>
+        <f t="shared" si="3"/>
         <v>6.1663143058491906E-3</v>
       </c>
     </row>
@@ -6559,7 +6585,7 @@
         <v>4</v>
       </c>
       <c r="E245" s="7">
-        <f>((B245/A245)-1)/C245</f>
+        <f t="shared" si="3"/>
         <v>6.2500000000000012E-3</v>
       </c>
     </row>
@@ -6577,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="E246" s="7">
-        <f>((B246/A246)-1)/C246</f>
+        <f t="shared" si="3"/>
         <v>6.2962962962962964E-3</v>
       </c>
     </row>
@@ -6595,7 +6621,7 @@
         <v>4</v>
       </c>
       <c r="E247" s="9">
-        <f>((B247/A247)-1)/C247</f>
+        <f t="shared" si="3"/>
         <v>6.3405797101449279E-3</v>
       </c>
     </row>
@@ -6613,7 +6639,7 @@
         <v>4</v>
       </c>
       <c r="E248" s="9">
-        <f>((B248/A248)-1)/C248</f>
+        <f t="shared" si="3"/>
         <v>6.6045066045066041E-3</v>
       </c>
     </row>
@@ -6631,7 +6657,7 @@
         <v>4</v>
       </c>
       <c r="E249" s="9">
-        <f>((B249/A249)-1)/C249</f>
+        <f t="shared" si="3"/>
         <v>6.818181818181817E-3</v>
       </c>
     </row>
@@ -6649,7 +6675,7 @@
         <v>4</v>
       </c>
       <c r="E250" s="9">
-        <f>((B250/A250)-1)/C250</f>
+        <f t="shared" si="3"/>
         <v>6.821705426356588E-3</v>
       </c>
     </row>
@@ -6667,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="E251" s="9">
-        <f>((B251/A251)-1)/C251</f>
+        <f t="shared" si="3"/>
         <v>6.9444444444444475E-3</v>
       </c>
     </row>
@@ -6685,7 +6711,7 @@
         <v>4</v>
       </c>
       <c r="E252" s="9">
-        <f>((B252/A252)-1)/C252</f>
+        <f t="shared" si="3"/>
         <v>7.1503313568189748E-3</v>
       </c>
     </row>
@@ -6703,7 +6729,7 @@
         <v>4</v>
       </c>
       <c r="E253" s="9">
-        <f>((B253/A253)-1)/C253</f>
+        <f t="shared" si="3"/>
         <v>7.2006472491909388E-3</v>
       </c>
     </row>
@@ -6721,7 +6747,7 @@
         <v>4</v>
       </c>
       <c r="E254" s="9">
-        <f>((B254/A254)-1)/C254</f>
+        <f t="shared" si="3"/>
         <v>7.272727272727271E-3</v>
       </c>
     </row>
@@ -6739,7 +6765,7 @@
         <v>4</v>
       </c>
       <c r="E255" s="9">
-        <f>((B255/A255)-1)/C255</f>
+        <f t="shared" si="3"/>
         <v>7.2931611669057881E-3</v>
       </c>
     </row>
@@ -6757,7 +6783,7 @@
         <v>4</v>
       </c>
       <c r="E256" s="9">
-        <f>((B256/A256)-1)/C256</f>
+        <f t="shared" si="3"/>
         <v>7.5301204819277108E-3</v>
       </c>
     </row>
@@ -6775,7 +6801,7 @@
         <v>4</v>
       </c>
       <c r="E257" s="9">
-        <f>((B257/A257)-1)/C257</f>
+        <f t="shared" si="3"/>
         <v>7.5560510343119034E-3</v>
       </c>
     </row>
@@ -6793,7 +6819,7 @@
         <v>4</v>
       </c>
       <c r="E258" s="9">
-        <f>((B258/A258)-1)/C258</f>
+        <f t="shared" ref="E258:E321" si="4">((B258/A258)-1)/C258</f>
         <v>7.6367820901767965E-3</v>
       </c>
     </row>
@@ -6811,7 +6837,7 @@
         <v>4</v>
       </c>
       <c r="E259" s="9">
-        <f>((B259/A259)-1)/C259</f>
+        <f t="shared" si="4"/>
         <v>7.7220077220077248E-3</v>
       </c>
     </row>
@@ -6829,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="E260" s="9">
-        <f>((B260/A260)-1)/C260</f>
+        <f t="shared" si="4"/>
         <v>7.7743902439024407E-3</v>
       </c>
     </row>
@@ -6847,7 +6873,7 @@
         <v>4</v>
       </c>
       <c r="E261" s="9">
-        <f>((B261/A261)-1)/C261</f>
+        <f t="shared" si="4"/>
         <v>7.780890133831311E-3</v>
       </c>
     </row>
@@ -6865,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="E262" s="9">
-        <f>((B262/A262)-1)/C262</f>
+        <f t="shared" si="4"/>
         <v>7.8339208773991371E-3</v>
       </c>
     </row>
@@ -6883,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="E263" s="9">
-        <f>((B263/A263)-1)/C263</f>
+        <f t="shared" si="4"/>
         <v>8.0847809461378779E-3</v>
       </c>
     </row>
@@ -6901,7 +6927,7 @@
         <v>4</v>
       </c>
       <c r="E264" s="9">
-        <f>((B264/A264)-1)/C264</f>
+        <f t="shared" si="4"/>
         <v>8.0862533692722359E-3</v>
       </c>
     </row>
@@ -6919,7 +6945,7 @@
         <v>4</v>
       </c>
       <c r="E265" s="9">
-        <f>((B265/A265)-1)/C265</f>
+        <f t="shared" si="4"/>
         <v>8.159026850615635E-3</v>
       </c>
     </row>
@@ -6937,7 +6963,7 @@
         <v>4</v>
       </c>
       <c r="E266" s="9">
-        <f>((B266/A266)-1)/C266</f>
+        <f t="shared" si="4"/>
         <v>8.6597388755662134E-3</v>
       </c>
     </row>
@@ -6955,7 +6981,7 @@
         <v>4</v>
       </c>
       <c r="E267" s="9">
-        <f>((B267/A267)-1)/C267</f>
+        <f t="shared" si="4"/>
         <v>8.8213412689977684E-3</v>
       </c>
     </row>
@@ -6973,7 +6999,7 @@
         <v>4</v>
       </c>
       <c r="E268" s="9">
-        <f>((B268/A268)-1)/C268</f>
+        <f t="shared" si="4"/>
         <v>8.9429884486399193E-3</v>
       </c>
     </row>
@@ -6991,7 +7017,7 @@
         <v>4</v>
       </c>
       <c r="E269" s="9">
-        <f>((B269/A269)-1)/C269</f>
+        <f t="shared" si="4"/>
         <v>8.9699074074074039E-3</v>
       </c>
     </row>
@@ -7009,7 +7035,7 @@
         <v>4</v>
       </c>
       <c r="E270" s="9">
-        <f>((B270/A270)-1)/C270</f>
+        <f t="shared" si="4"/>
         <v>9.0090090090090055E-3</v>
       </c>
     </row>
@@ -7027,7 +7053,7 @@
         <v>4</v>
       </c>
       <c r="E271" s="9">
-        <f>((B271/A271)-1)/C271</f>
+        <f t="shared" si="4"/>
         <v>9.1036414565826319E-3</v>
       </c>
     </row>
@@ -7045,7 +7071,7 @@
         <v>4</v>
       </c>
       <c r="E272" s="9">
-        <f>((B272/A272)-1)/C272</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
@@ -7063,7 +7089,7 @@
         <v>4</v>
       </c>
       <c r="E273" s="9">
-        <f>((B273/A273)-1)/C273</f>
+        <f t="shared" si="4"/>
         <v>9.2970521541950093E-3</v>
       </c>
     </row>
@@ -7081,7 +7107,7 @@
         <v>4</v>
       </c>
       <c r="E274" s="9">
-        <f>((B274/A274)-1)/C274</f>
+        <f t="shared" si="4"/>
         <v>9.4866071428571438E-3</v>
       </c>
     </row>
@@ -7099,7 +7125,7 @@
         <v>4</v>
       </c>
       <c r="E275" s="9">
-        <f>((B275/A275)-1)/C275</f>
+        <f t="shared" si="4"/>
         <v>9.5238095238095247E-3</v>
       </c>
     </row>
@@ -7117,7 +7143,7 @@
         <v>4</v>
       </c>
       <c r="E276" s="9">
-        <f>((B276/A276)-1)/C276</f>
+        <f t="shared" si="4"/>
         <v>9.6525096525096488E-3</v>
       </c>
     </row>
@@ -7135,7 +7161,7 @@
         <v>4</v>
       </c>
       <c r="E277" s="9">
-        <f>((B277/A277)-1)/C277</f>
+        <f t="shared" si="4"/>
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
@@ -7153,7 +7179,7 @@
         <v>4</v>
       </c>
       <c r="E278" s="9">
-        <f>((B278/A278)-1)/C278</f>
+        <f t="shared" si="4"/>
         <v>9.746588693957111E-3</v>
       </c>
     </row>
@@ -7171,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="E279" s="9">
-        <f>((B279/A279)-1)/C279</f>
+        <f t="shared" si="4"/>
         <v>9.8039215686274508E-3</v>
       </c>
     </row>
@@ -7189,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="E280" s="9">
-        <f>((B280/A280)-1)/C280</f>
+        <f t="shared" si="4"/>
         <v>9.8274209012464021E-3</v>
       </c>
     </row>
@@ -7207,7 +7233,7 @@
         <v>4</v>
       </c>
       <c r="E281" s="9">
-        <f>((B281/A281)-1)/C281</f>
+        <f t="shared" si="4"/>
         <v>9.8470563586842644E-3</v>
       </c>
     </row>
@@ -7225,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="E282" s="9">
-        <f>((B282/A282)-1)/C282</f>
+        <f t="shared" si="4"/>
         <v>9.8576122672508221E-3</v>
       </c>
     </row>
@@ -7243,7 +7269,7 @@
         <v>4</v>
       </c>
       <c r="E283" s="9">
-        <f>((B283/A283)-1)/C283</f>
+        <f t="shared" si="4"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -7261,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="E284" s="9">
-        <f>((B284/A284)-1)/C284</f>
+        <f t="shared" si="4"/>
         <v>1.0344827586206895E-2</v>
       </c>
     </row>
@@ -7279,7 +7305,7 @@
         <v>4</v>
       </c>
       <c r="E285" s="9">
-        <f>((B285/A285)-1)/C285</f>
+        <f t="shared" si="4"/>
         <v>1.055718475073314E-2</v>
       </c>
     </row>
@@ -7297,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="E286" s="9">
-        <f>((B286/A286)-1)/C286</f>
+        <f t="shared" si="4"/>
         <v>1.0803355936099298E-2</v>
       </c>
     </row>
@@ -7315,7 +7341,7 @@
         <v>4</v>
       </c>
       <c r="E287" s="9">
-        <f>((B287/A287)-1)/C287</f>
+        <f t="shared" si="4"/>
         <v>1.1001100110011002E-2</v>
       </c>
     </row>
@@ -7333,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="E288" s="9">
-        <f>((B288/A288)-1)/C288</f>
+        <f t="shared" si="4"/>
         <v>1.1078717201166183E-2</v>
       </c>
     </row>
@@ -7351,7 +7377,7 @@
         <v>4</v>
       </c>
       <c r="E289" s="9">
-        <f>((B289/A289)-1)/C289</f>
+        <f t="shared" si="4"/>
         <v>1.1133603238866398E-2</v>
       </c>
     </row>
@@ -7369,7 +7395,7 @@
         <v>4</v>
       </c>
       <c r="E290" s="9">
-        <f>((B290/A290)-1)/C290</f>
+        <f t="shared" si="4"/>
         <v>1.1592741935483869E-2</v>
       </c>
     </row>
@@ -7387,7 +7413,7 @@
         <v>4</v>
       </c>
       <c r="E291" s="9">
-        <f>((B291/A291)-1)/C291</f>
+        <f t="shared" si="4"/>
         <v>1.2465373961218836E-2</v>
       </c>
     </row>
@@ -7405,7 +7431,7 @@
         <v>4</v>
       </c>
       <c r="E292" s="9">
-        <f>((B292/A292)-1)/C292</f>
+        <f t="shared" si="4"/>
         <v>1.2792922046867525E-2</v>
       </c>
     </row>
@@ -7423,7 +7449,7 @@
         <v>4</v>
       </c>
       <c r="E293" s="9">
-        <f>((B293/A293)-1)/C293</f>
+        <f t="shared" si="4"/>
         <v>1.2847222222222223E-2</v>
       </c>
     </row>
@@ -7441,7 +7467,7 @@
         <v>4</v>
       </c>
       <c r="E294" s="9">
-        <f>((B294/A294)-1)/C294</f>
+        <f t="shared" si="4"/>
         <v>1.3194722111155537E-2</v>
       </c>
     </row>
@@ -7459,7 +7485,7 @@
         <v>4</v>
       </c>
       <c r="E295" s="9">
-        <f>((B295/A295)-1)/C295</f>
+        <f t="shared" si="4"/>
         <v>1.3462026924053846E-2</v>
       </c>
     </row>
@@ -7477,7 +7503,7 @@
         <v>4</v>
       </c>
       <c r="E296" s="9">
-        <f>((B296/A296)-1)/C296</f>
+        <f t="shared" si="4"/>
         <v>1.3907734056987789E-2</v>
       </c>
     </row>
@@ -7495,7 +7521,7 @@
         <v>4</v>
       </c>
       <c r="E297" s="9">
-        <f>((B297/A297)-1)/C297</f>
+        <f t="shared" si="4"/>
         <v>1.4240046498111012E-2</v>
       </c>
     </row>
@@ -7513,7 +7539,7 @@
         <v>4</v>
       </c>
       <c r="E298" s="9">
-        <f>((B298/A298)-1)/C298</f>
+        <f t="shared" si="4"/>
         <v>1.4324367340442465E-2</v>
       </c>
     </row>
@@ -7531,7 +7557,7 @@
         <v>4</v>
       </c>
       <c r="E299" s="9">
-        <f>((B299/A299)-1)/C299</f>
+        <f t="shared" si="4"/>
         <v>1.4329339910735258E-2</v>
       </c>
     </row>
@@ -7549,7 +7575,7 @@
         <v>4</v>
       </c>
       <c r="E300" s="9">
-        <f>((B300/A300)-1)/C300</f>
+        <f t="shared" si="4"/>
         <v>1.446051167964405E-2</v>
       </c>
     </row>
@@ -7567,7 +7593,7 @@
         <v>4</v>
       </c>
       <c r="E301" s="9">
-        <f>((B301/A301)-1)/C301</f>
+        <f t="shared" si="4"/>
         <v>1.4775413711583925E-2</v>
       </c>
     </row>
@@ -7585,7 +7611,7 @@
         <v>4</v>
       </c>
       <c r="E302" s="9">
-        <f>((B302/A302)-1)/C302</f>
+        <f t="shared" si="4"/>
         <v>1.5151515151515138E-2</v>
       </c>
     </row>
@@ -7603,7 +7629,7 @@
         <v>4</v>
       </c>
       <c r="E303" s="9">
-        <f>((B303/A303)-1)/C303</f>
+        <f t="shared" si="4"/>
         <v>1.5334063526834611E-2</v>
       </c>
     </row>
@@ -7621,7 +7647,7 @@
         <v>4</v>
       </c>
       <c r="E304" s="9">
-        <f>((B304/A304)-1)/C304</f>
+        <f t="shared" si="4"/>
         <v>1.5384615384615382E-2</v>
       </c>
     </row>
@@ -7639,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="E305" s="9">
-        <f>((B305/A305)-1)/C305</f>
+        <f t="shared" si="4"/>
         <v>1.5873015873015869E-2</v>
       </c>
     </row>
@@ -7657,7 +7683,7 @@
         <v>4</v>
       </c>
       <c r="E306" s="9">
-        <f>((B306/A306)-1)/C306</f>
+        <f t="shared" si="4"/>
         <v>1.5950520833333332E-2</v>
       </c>
     </row>
@@ -7675,7 +7701,7 @@
         <v>4</v>
       </c>
       <c r="E307" s="9">
-        <f>((B307/A307)-1)/C307</f>
+        <f t="shared" si="4"/>
         <v>1.6053511705685621E-2</v>
       </c>
     </row>
@@ -7693,7 +7719,7 @@
         <v>4</v>
       </c>
       <c r="E308" s="9">
-        <f>((B308/A308)-1)/C308</f>
+        <f t="shared" si="4"/>
         <v>1.6081871345029242E-2</v>
       </c>
     </row>
@@ -7711,7 +7737,7 @@
         <v>4</v>
       </c>
       <c r="E309" s="9">
-        <f>((B309/A309)-1)/C309</f>
+        <f t="shared" si="4"/>
         <v>1.6384018396090834E-2</v>
       </c>
     </row>
@@ -7729,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="E310" s="9">
-        <f>((B310/A310)-1)/C310</f>
+        <f t="shared" si="4"/>
         <v>1.7699115044247787E-2</v>
       </c>
     </row>
@@ -7747,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="E311" s="9">
-        <f>((B311/A311)-1)/C311</f>
+        <f t="shared" si="4"/>
         <v>1.8018018018018011E-2</v>
       </c>
     </row>
@@ -7765,7 +7791,7 @@
         <v>4</v>
       </c>
       <c r="E312" s="9">
-        <f>((B312/A312)-1)/C312</f>
+        <f t="shared" si="4"/>
         <v>1.8181818181818188E-2</v>
       </c>
     </row>
@@ -7783,7 +7809,7 @@
         <v>4</v>
       </c>
       <c r="E313" s="9">
-        <f>((B313/A313)-1)/C313</f>
+        <f t="shared" si="4"/>
         <v>1.8518518518518521E-2</v>
       </c>
     </row>
@@ -7801,7 +7827,7 @@
         <v>4</v>
       </c>
       <c r="E314" s="9">
-        <f>((B314/A314)-1)/C314</f>
+        <f t="shared" si="4"/>
         <v>1.8790849673202614E-2</v>
       </c>
     </row>
@@ -7819,7 +7845,7 @@
         <v>4</v>
       </c>
       <c r="E315" s="9">
-        <f>((B315/A315)-1)/C315</f>
+        <f t="shared" si="4"/>
         <v>1.893939393939394E-2</v>
       </c>
     </row>
@@ -7837,7 +7863,7 @@
         <v>4</v>
       </c>
       <c r="E316" s="9">
-        <f>((B316/A316)-1)/C316</f>
+        <f t="shared" si="4"/>
         <v>1.9860973187686197E-2</v>
       </c>
     </row>
@@ -7855,7 +7881,7 @@
         <v>4</v>
       </c>
       <c r="E317" s="9">
-        <f>((B317/A317)-1)/C317</f>
+        <f t="shared" si="4"/>
         <v>1.9937275985663083E-2</v>
       </c>
     </row>
@@ -7873,7 +7899,7 @@
         <v>5</v>
       </c>
       <c r="E318" s="9">
-        <f>((B318/A318)-1)/C318</f>
+        <f t="shared" si="4"/>
         <v>2.2092267706302796E-2</v>
       </c>
     </row>
@@ -7891,7 +7917,7 @@
         <v>4</v>
       </c>
       <c r="E319" s="9">
-        <f>((B319/A319)-1)/C319</f>
+        <f t="shared" si="4"/>
         <v>2.230769230769231E-2</v>
       </c>
     </row>
@@ -7909,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="E320" s="9">
-        <f>((B320/A320)-1)/C320</f>
+        <f t="shared" si="4"/>
         <v>2.2321428571428575E-2</v>
       </c>
     </row>
@@ -7927,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="E321" s="9">
-        <f>((B321/A321)-1)/C321</f>
+        <f t="shared" si="4"/>
         <v>2.2556390977443611E-2</v>
       </c>
     </row>
@@ -7945,7 +7971,7 @@
         <v>4</v>
       </c>
       <c r="E322" s="9">
-        <f>((B322/A322)-1)/C322</f>
+        <f t="shared" ref="E322:E385" si="5">((B322/A322)-1)/C322</f>
         <v>2.3504273504273514E-2</v>
       </c>
     </row>
@@ -7963,7 +7989,7 @@
         <v>4</v>
       </c>
       <c r="E323" s="9">
-        <f>((B323/A323)-1)/C323</f>
+        <f t="shared" si="5"/>
         <v>2.4305555555555563E-2</v>
       </c>
     </row>
@@ -7981,7 +8007,7 @@
         <v>4</v>
       </c>
       <c r="E324" s="9">
-        <f>((B324/A324)-1)/C324</f>
+        <f t="shared" si="5"/>
         <v>2.4520255863539453E-2</v>
       </c>
     </row>
@@ -7999,7 +8025,7 @@
         <v>4</v>
       </c>
       <c r="E325" s="9">
-        <f>((B325/A325)-1)/C325</f>
+        <f t="shared" si="5"/>
         <v>2.462121212121212E-2</v>
       </c>
     </row>
@@ -8017,7 +8043,7 @@
         <v>4</v>
       </c>
       <c r="E326" s="9">
-        <f>((B326/A326)-1)/C326</f>
+        <f t="shared" si="5"/>
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
@@ -8035,7 +8061,7 @@
         <v>4</v>
       </c>
       <c r="E327" s="9">
-        <f>((B327/A327)-1)/C327</f>
+        <f t="shared" si="5"/>
         <v>2.661064425770308E-2</v>
       </c>
     </row>
@@ -8053,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="E328" s="9">
-        <f>((B328/A328)-1)/C328</f>
+        <f t="shared" si="5"/>
         <v>2.7450980392156866E-2</v>
       </c>
     </row>
@@ -8071,7 +8097,7 @@
         <v>4</v>
       </c>
       <c r="E329" s="9">
-        <f>((B329/A329)-1)/C329</f>
+        <f t="shared" si="5"/>
         <v>2.7943485086342233E-2</v>
       </c>
     </row>
@@ -8089,7 +8115,7 @@
         <v>4</v>
       </c>
       <c r="E330" s="9">
-        <f>((B330/A330)-1)/C330</f>
+        <f t="shared" si="5"/>
         <v>2.8061224489795922E-2</v>
       </c>
     </row>
@@ -8107,7 +8133,7 @@
         <v>4</v>
       </c>
       <c r="E331" s="9">
-        <f>((B331/A331)-1)/C331</f>
+        <f t="shared" si="5"/>
         <v>2.9115341545352738E-2</v>
       </c>
     </row>
@@ -8125,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="E332" s="9">
-        <f>((B332/A332)-1)/C332</f>
+        <f t="shared" si="5"/>
         <v>2.972027972027972E-2</v>
       </c>
     </row>
@@ -8143,7 +8169,7 @@
         <v>4</v>
       </c>
       <c r="E333" s="9">
-        <f>((B333/A333)-1)/C333</f>
+        <f t="shared" si="5"/>
         <v>2.9776674937965261E-2</v>
       </c>
     </row>
@@ -8161,7 +8187,7 @@
         <v>4</v>
       </c>
       <c r="E334" s="9">
-        <f>((B334/A334)-1)/C334</f>
+        <f t="shared" si="5"/>
         <v>3.0869565217391304E-2</v>
       </c>
     </row>
@@ -8179,7 +8205,7 @@
         <v>4</v>
       </c>
       <c r="E335" s="9">
-        <f>((B335/A335)-1)/C335</f>
+        <f t="shared" si="5"/>
         <v>3.3026113671274962E-2</v>
       </c>
     </row>
@@ -8197,7 +8223,7 @@
         <v>4</v>
       </c>
       <c r="E336" s="9">
-        <f>((B336/A336)-1)/C336</f>
+        <f t="shared" si="5"/>
         <v>3.3653846153846152E-2</v>
       </c>
     </row>
@@ -8215,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="E337" s="9">
-        <f>((B337/A337)-1)/C337</f>
+        <f t="shared" si="5"/>
         <v>3.3801020408163268E-2</v>
       </c>
     </row>
@@ -8233,7 +8259,7 @@
         <v>4</v>
       </c>
       <c r="E338" s="9">
-        <f>((B338/A338)-1)/C338</f>
+        <f t="shared" si="5"/>
         <v>3.388278388278388E-2</v>
       </c>
     </row>
@@ -8251,7 +8277,7 @@
         <v>4</v>
       </c>
       <c r="E339" s="9">
-        <f>((B339/A339)-1)/C339</f>
+        <f t="shared" si="5"/>
         <v>3.4574468085106384E-2</v>
       </c>
     </row>
@@ -8269,7 +8295,7 @@
         <v>4</v>
       </c>
       <c r="E340" s="9">
-        <f>((B340/A340)-1)/C340</f>
+        <f t="shared" si="5"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -8287,7 +8313,7 @@
         <v>4</v>
       </c>
       <c r="E341" s="9">
-        <f>((B341/A341)-1)/C341</f>
+        <f t="shared" si="5"/>
         <v>3.6221590909090912E-2</v>
       </c>
     </row>
@@ -8305,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="E342" s="9">
-        <f>((B342/A342)-1)/C342</f>
+        <f t="shared" si="5"/>
         <v>3.7499999999999978E-2</v>
       </c>
     </row>
@@ -8323,7 +8349,7 @@
         <v>4</v>
       </c>
       <c r="E343" s="9">
-        <f>((B343/A343)-1)/C343</f>
+        <f t="shared" si="5"/>
         <v>3.7815126050420172E-2</v>
       </c>
     </row>
@@ -8341,7 +8367,7 @@
         <v>4</v>
       </c>
       <c r="E344" s="9">
-        <f>((B344/A344)-1)/C344</f>
+        <f t="shared" si="5"/>
         <v>3.8834951456310676E-2</v>
       </c>
     </row>
@@ -8359,7 +8385,7 @@
         <v>4</v>
       </c>
       <c r="E345" s="9">
-        <f>((B345/A345)-1)/C345</f>
+        <f t="shared" si="5"/>
         <v>3.8865546218487403E-2</v>
       </c>
     </row>
@@ -8377,7 +8403,7 @@
         <v>4</v>
       </c>
       <c r="E346" s="9">
-        <f>((B346/A346)-1)/C346</f>
+        <f t="shared" si="5"/>
         <v>3.9977477477477479E-2</v>
       </c>
     </row>
@@ -8395,7 +8421,7 @@
         <v>4</v>
       </c>
       <c r="E347" s="9">
-        <f>((B347/A347)-1)/C347</f>
+        <f t="shared" si="5"/>
         <v>4.044117647058823E-2</v>
       </c>
     </row>
@@ -8413,7 +8439,7 @@
         <v>4</v>
       </c>
       <c r="E348" s="9">
-        <f>((B348/A348)-1)/C348</f>
+        <f t="shared" si="5"/>
         <v>4.0564373897707229E-2</v>
       </c>
     </row>
@@ -8431,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="E349" s="9">
-        <f>((B349/A349)-1)/C349</f>
+        <f t="shared" si="5"/>
         <v>4.0740740740740744E-2</v>
       </c>
     </row>
@@ -8449,7 +8475,7 @@
         <v>4</v>
       </c>
       <c r="E350" s="9">
-        <f>((B350/A350)-1)/C350</f>
+        <f t="shared" si="5"/>
         <v>4.1025641025641026E-2</v>
       </c>
     </row>
@@ -8467,7 +8493,7 @@
         <v>4</v>
       </c>
       <c r="E351" s="9">
-        <f>((B351/A351)-1)/C351</f>
+        <f t="shared" si="5"/>
         <v>4.1330645161290328E-2</v>
       </c>
     </row>
@@ -8485,7 +8511,7 @@
         <v>4</v>
       </c>
       <c r="E352" s="9">
-        <f>((B352/A352)-1)/C352</f>
+        <f t="shared" si="5"/>
         <v>4.3417366946778717E-2</v>
       </c>
     </row>
@@ -8503,7 +8529,7 @@
         <v>4</v>
       </c>
       <c r="E353" s="9">
-        <f>((B353/A353)-1)/C353</f>
+        <f t="shared" si="5"/>
         <v>4.3424317617865998E-2</v>
       </c>
     </row>
@@ -8521,7 +8547,7 @@
         <v>4</v>
       </c>
       <c r="E354" s="9">
-        <f>((B354/A354)-1)/C354</f>
+        <f t="shared" si="5"/>
         <v>4.495005549389567E-2</v>
       </c>
     </row>
@@ -8539,7 +8565,7 @@
         <v>4</v>
       </c>
       <c r="E355" s="9">
-        <f>((B355/A355)-1)/C355</f>
+        <f t="shared" si="5"/>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
@@ -8557,7 +8583,7 @@
         <v>4</v>
       </c>
       <c r="E356" s="9">
-        <f>((B356/A356)-1)/C356</f>
+        <f t="shared" si="5"/>
         <v>4.7E-2</v>
       </c>
     </row>
@@ -8575,7 +8601,7 @@
         <v>4</v>
       </c>
       <c r="E357" s="9">
-        <f>((B357/A357)-1)/C357</f>
+        <f t="shared" si="5"/>
         <v>4.725415070242657E-2</v>
       </c>
     </row>
@@ -8593,7 +8619,7 @@
         <v>4</v>
       </c>
       <c r="E358" s="9">
-        <f>((B358/A358)-1)/C358</f>
+        <f t="shared" si="5"/>
         <v>4.9270990447461027E-2</v>
       </c>
     </row>
@@ -8611,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="E359" s="9">
-        <f>((B359/A359)-1)/C359</f>
+        <f t="shared" si="5"/>
         <v>4.9857549857549859E-2</v>
       </c>
     </row>
@@ -8629,7 +8655,7 @@
         <v>4</v>
       </c>
       <c r="E360" s="9">
-        <f>((B360/A360)-1)/C360</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
@@ -8647,7 +8673,7 @@
         <v>4</v>
       </c>
       <c r="E361" s="9">
-        <f>((B361/A361)-1)/C361</f>
+        <f t="shared" si="5"/>
         <v>5.003819709702062E-2</v>
       </c>
     </row>
@@ -8665,7 +8691,7 @@
         <v>5</v>
       </c>
       <c r="E362" s="9">
-        <f>((B362/A362)-1)/C362</f>
+        <f t="shared" si="5"/>
         <v>5.1693404634581108E-2</v>
       </c>
     </row>
@@ -8683,7 +8709,7 @@
         <v>4</v>
       </c>
       <c r="E363" s="9">
-        <f>((B363/A363)-1)/C363</f>
+        <f t="shared" si="5"/>
         <v>5.1851851851851843E-2</v>
       </c>
     </row>
@@ -8701,7 +8727,7 @@
         <v>4</v>
       </c>
       <c r="E364" s="9">
-        <f>((B364/A364)-1)/C364</f>
+        <f t="shared" si="5"/>
         <v>5.2777777777777785E-2</v>
       </c>
     </row>
@@ -8719,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="E365" s="9">
-        <f>((B365/A365)-1)/C365</f>
+        <f t="shared" si="5"/>
         <v>5.8024691358024696E-2</v>
       </c>
     </row>
@@ -8737,7 +8763,7 @@
         <v>4</v>
       </c>
       <c r="E366" s="9">
-        <f>((B366/A366)-1)/C366</f>
+        <f t="shared" si="5"/>
         <v>5.9821428571428574E-2</v>
       </c>
     </row>
@@ -8755,7 +8781,7 @@
         <v>4</v>
       </c>
       <c r="E367" s="9">
-        <f>((B367/A367)-1)/C367</f>
+        <f t="shared" si="5"/>
         <v>5.9929494712103411E-2</v>
       </c>
     </row>
@@ -8773,7 +8799,7 @@
         <v>4</v>
       </c>
       <c r="E368" s="9">
-        <f>((B368/A368)-1)/C368</f>
+        <f t="shared" si="5"/>
         <v>6.1029411764705888E-2</v>
       </c>
     </row>
@@ -8791,7 +8817,7 @@
         <v>4</v>
       </c>
       <c r="E369" s="9">
-        <f>((B369/A369)-1)/C369</f>
+        <f t="shared" si="5"/>
         <v>6.17059891107078E-2</v>
       </c>
     </row>
@@ -8809,7 +8835,7 @@
         <v>4</v>
       </c>
       <c r="E370" s="9">
-        <f>((B370/A370)-1)/C370</f>
+        <f t="shared" si="5"/>
         <v>6.5217391304347824E-2</v>
       </c>
     </row>
@@ -8827,7 +8853,7 @@
         <v>4</v>
       </c>
       <c r="E371" s="9">
-        <f>((B371/A371)-1)/C371</f>
+        <f t="shared" si="5"/>
         <v>6.6964285714285712E-2</v>
       </c>
     </row>
@@ -8845,7 +8871,7 @@
         <v>4</v>
       </c>
       <c r="E372" s="9">
-        <f>((B372/A372)-1)/C372</f>
+        <f t="shared" si="5"/>
         <v>6.7049808429118785E-2</v>
       </c>
     </row>
@@ -8863,7 +8889,7 @@
         <v>5</v>
       </c>
       <c r="E373" s="9">
-        <f>((B373/A373)-1)/C373</f>
+        <f t="shared" si="5"/>
         <v>6.9182389937106931E-2</v>
       </c>
     </row>
@@ -8881,7 +8907,7 @@
         <v>4</v>
       </c>
       <c r="E374" s="9">
-        <f>((B374/A374)-1)/C374</f>
+        <f t="shared" si="5"/>
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
@@ -8899,7 +8925,7 @@
         <v>4</v>
       </c>
       <c r="E375" s="9">
-        <f>((B375/A375)-1)/C375</f>
+        <f t="shared" si="5"/>
         <v>7.5980392156862753E-2</v>
       </c>
     </row>
@@ -8917,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="E376" s="9">
-        <f>((B376/A376)-1)/C376</f>
+        <f t="shared" si="5"/>
         <v>8.9795918367346933E-2</v>
       </c>
     </row>
@@ -8935,7 +8961,7 @@
         <v>4</v>
       </c>
       <c r="E377" s="9">
-        <f>((B377/A377)-1)/C377</f>
+        <f t="shared" si="5"/>
         <v>9.881422924901187E-2</v>
       </c>
     </row>
@@ -8953,7 +8979,7 @@
         <v>4</v>
       </c>
       <c r="E378" s="9">
-        <f>((B378/A378)-1)/C378</f>
+        <f t="shared" si="5"/>
         <v>9.8901098901098911E-2</v>
       </c>
     </row>
@@ -8971,7 +8997,7 @@
         <v>4</v>
       </c>
       <c r="E379" s="9">
-        <f>((B379/A379)-1)/C379</f>
+        <f t="shared" si="5"/>
         <v>0.10034013605442176</v>
       </c>
     </row>
@@ -8989,7 +9015,7 @@
         <v>4</v>
       </c>
       <c r="E380" s="9">
-        <f>((B380/A380)-1)/C380</f>
+        <f t="shared" si="5"/>
         <v>0.1005859375</v>
       </c>
     </row>
@@ -9007,7 +9033,7 @@
         <v>4</v>
       </c>
       <c r="E381" s="9">
-        <f>((B381/A381)-1)/C381</f>
+        <f t="shared" si="5"/>
         <v>0.10256410256410257</v>
       </c>
     </row>
@@ -9025,7 +9051,7 @@
         <v>4</v>
       </c>
       <c r="E382" s="9">
-        <f>((B382/A382)-1)/C382</f>
+        <f t="shared" si="5"/>
         <v>0.11666666666666665</v>
       </c>
     </row>
@@ -9043,7 +9069,7 @@
         <v>4</v>
       </c>
       <c r="E383" s="9">
-        <f>((B383/A383)-1)/C383</f>
+        <f t="shared" si="5"/>
         <v>0.12053571428571429</v>
       </c>
     </row>
@@ -9061,7 +9087,7 @@
         <v>4</v>
       </c>
       <c r="E384" s="9">
-        <f>((B384/A384)-1)/C384</f>
+        <f t="shared" si="5"/>
         <v>0.13888888888888887</v>
       </c>
     </row>
@@ -9079,7 +9105,7 @@
         <v>4</v>
       </c>
       <c r="E385" s="9">
-        <f>((B385/A385)-1)/C385</f>
+        <f t="shared" si="5"/>
         <v>0.13978494623655913</v>
       </c>
     </row>
@@ -9097,7 +9123,7 @@
         <v>4</v>
       </c>
       <c r="E386" s="9">
-        <f>((B386/A386)-1)/C386</f>
+        <f t="shared" ref="E386:E401" si="6">((B386/A386)-1)/C386</f>
         <v>0.14093137254901961</v>
       </c>
     </row>
@@ -9115,7 +9141,7 @@
         <v>4</v>
       </c>
       <c r="E387" s="9">
-        <f>((B387/A387)-1)/C387</f>
+        <f t="shared" si="6"/>
         <v>0.146503884572697</v>
       </c>
     </row>
@@ -9133,7 +9159,7 @@
         <v>4</v>
       </c>
       <c r="E388" s="9">
-        <f>((B388/A388)-1)/C388</f>
+        <f t="shared" si="6"/>
         <v>0.15151515151515149</v>
       </c>
     </row>
@@ -9151,7 +9177,7 @@
         <v>4</v>
       </c>
       <c r="E389" s="9">
-        <f>((B389/A389)-1)/C389</f>
+        <f t="shared" si="6"/>
         <v>0.15942028985507248</v>
       </c>
     </row>
@@ -9169,7 +9195,7 @@
         <v>4</v>
       </c>
       <c r="E390" s="9">
-        <f>((B390/A390)-1)/C390</f>
+        <f t="shared" si="6"/>
         <v>0.16250000000000001</v>
       </c>
     </row>
@@ -9187,7 +9213,7 @@
         <v>4</v>
       </c>
       <c r="E391" s="9">
-        <f>((B391/A391)-1)/C391</f>
+        <f t="shared" si="6"/>
         <v>0.16358024691358025</v>
       </c>
     </row>
@@ -9205,7 +9231,7 @@
         <v>4</v>
       </c>
       <c r="E392" s="9">
-        <f>((B392/A392)-1)/C392</f>
+        <f t="shared" si="6"/>
         <v>0.18831168831168835</v>
       </c>
     </row>
@@ -9223,7 +9249,7 @@
         <v>4</v>
       </c>
       <c r="E393" s="9">
-        <f>((B393/A393)-1)/C393</f>
+        <f t="shared" si="6"/>
         <v>0.19565217391304349</v>
       </c>
     </row>
@@ -9241,7 +9267,7 @@
         <v>4</v>
       </c>
       <c r="E394" s="9">
-        <f>((B394/A394)-1)/C394</f>
+        <f t="shared" si="6"/>
         <v>0.19758064516129031</v>
       </c>
     </row>
@@ -9259,7 +9285,7 @@
         <v>4</v>
       </c>
       <c r="E395" s="9">
-        <f>((B395/A395)-1)/C395</f>
+        <f t="shared" si="6"/>
         <v>0.21000000000000002</v>
       </c>
     </row>
@@ -9277,7 +9303,7 @@
         <v>4</v>
       </c>
       <c r="E396" s="9">
-        <f>((B396/A396)-1)/C396</f>
+        <f t="shared" si="6"/>
         <v>0.21428571428571427</v>
       </c>
     </row>
@@ -9295,7 +9321,7 @@
         <v>4</v>
       </c>
       <c r="E397" s="9">
-        <f>((B397/A397)-1)/C397</f>
+        <f t="shared" si="6"/>
         <v>0.24675324675324672</v>
       </c>
     </row>
@@ -9313,7 +9339,7 @@
         <v>4</v>
       </c>
       <c r="E398" s="9">
-        <f>((B398/A398)-1)/C398</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9331,7 +9357,7 @@
         <v>4</v>
       </c>
       <c r="E399" s="9">
-        <f>((B399/A399)-1)/C399</f>
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -9349,7 +9375,7 @@
         <v>4</v>
       </c>
       <c r="E400" s="9">
-        <f>((B400/A400)-1)/C400</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
     </row>
@@ -9367,7 +9393,7 @@
         <v>4</v>
       </c>
       <c r="E401" s="9">
-        <f>((B401/A401)-1)/C401</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
     </row>
